--- a/RP.xlsx
+++ b/RP.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73401D41-74DD-42E2-A3BA-2E231F712D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F68C8-86C3-4AC6-ABEA-9B32BA0CFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Comparative CT-Based Bone Density and Screw Trajectories</t>
   </si>
   <si>
-    <t>Awaiting EIC Decision</t>
-  </si>
-  <si>
     <t>CN vs CP Spondylodiscitis</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Substance Use outcomes after Spinal Cord Injury (SCI)</t>
   </si>
   <si>
-    <t>Awaiting reviewer scores</t>
-  </si>
-  <si>
     <t>Implant removal Vs Retention</t>
   </si>
   <si>
@@ -104,18 +98,9 @@
     <t>Sent For DATA Collection.</t>
   </si>
   <si>
-    <t>Submitted to GS journal.</t>
-  </si>
-  <si>
-    <t>Manuscript almost made ready by sir.</t>
-  </si>
-  <si>
     <t>A Locally Executed Agentic AI Framework</t>
   </si>
   <si>
-    <t>Awaiting Admin Processing</t>
-  </si>
-  <si>
     <t>Proximal Junctional Odontoid Fracture After Cervical Fusion</t>
   </si>
   <si>
@@ -134,42 +119,10 @@
     <t>Working on</t>
   </si>
   <si>
-    <t>-To be Updated-</t>
-  </si>
-  <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
     <t>Scientometry</t>
   </si>
   <si>
     <t>Yet to start</t>
-  </si>
-  <si>
-    <r>
-      <t>AI Medisearch vs ChatGPT ("</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TKR"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for Knee OA)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -197,12 +150,53 @@
       <t xml:space="preserve"> for Knee OA)</t>
     </r>
   </si>
+  <si>
+    <t>Submitted to other journal.</t>
+  </si>
+  <si>
+    <t>Submitted to KSSTA journal.</t>
+  </si>
+  <si>
+    <t>Sarcomas of Spine</t>
+  </si>
+  <si>
+    <r>
+      <t>AI Medisearch vs ChatGPT ("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TKR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Knee OA)</t>
+    </r>
+  </si>
+  <si>
+    <t>Waiting to be submitted by Sir</t>
+  </si>
+  <si>
+    <t>Minor Revision</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +266,6 @@
       <name val="Aptos Now"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -285,16 +273,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,19 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,25 +444,19 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,9 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1"/>
   <cols>
@@ -900,8 +866,8 @@
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>14</v>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
@@ -909,10 +875,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33.75" customHeight="1">
@@ -920,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33.75" customHeight="1">
@@ -931,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33.75" customHeight="1">
@@ -942,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>22</v>
@@ -953,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
@@ -964,10 +930,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33.75" customHeight="1">
@@ -975,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="19" t="s">
         <v>24</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36.75" customHeight="1">
@@ -986,32 +952,32 @@
         <v>11</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
+      <c r="B15" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>30</v>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="33.75" customHeight="1">
@@ -1019,10 +985,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" customHeight="1">
@@ -1030,10 +996,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33.75" customHeight="1">
@@ -1041,32 +1007,32 @@
         <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="33.75" customHeight="1">
       <c r="A20" s="13">
         <v>17</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>36</v>
+      <c r="B20" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.6" customHeight="1">
+      <c r="A21" s="24">
         <v>18</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>38</v>
+      <c r="B21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1074,10 +1040,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
@@ -1085,10 +1051,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/RP.xlsx
+++ b/RP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D4119-11AE-44C2-AEFA-D0A1A09B51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F1FB2-3929-4559-A87E-7CC3A5C7E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Working on it</t>
+  </si>
+  <si>
+    <t>C1,C2 Posterior Temporary Fixation</t>
   </si>
 </sst>
 </file>
@@ -793,9 +796,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1037,25 +1040,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13">
+    <row r="22" spans="1:3" ht="24.6" customHeight="1">
+      <c r="A22" s="24">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="B22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>34</v>
       </c>
     </row>
